--- a/va_facility_data_2025-02-20/Diamond View VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Diamond%20View%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Diamond View VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Diamond%20View%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb7a6f0adda4b49de959c216d28d57f06"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R045419dfd6a447d8bf43aac5ea625874"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R284d4f586d3b4ff5b29023a38f3cf55f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rad25de74154b44a2b74b1f0d8a4e8ba2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc6062fdb1d4947e3a64c0de13b531bb0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R22d58ad3b29c449a8de8decb1b8d7146"/>
   </x:sheets>
 </x:workbook>
 </file>
